--- a/trunk/03/resources/sprawozdanie/183566.xlsx
+++ b/trunk/03/resources/sprawozdanie/183566.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="zbiór 1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="epoch_log" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="epoch_log" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kmeans\epoch_log.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -70,7 +70,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="epoch_log1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" name="epoch_log1" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kmeans\epoch_log.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -78,7 +78,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="epoch_log10" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" name="epoch_log10" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kohonen\epoch_log.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="skip"/>
@@ -156,7 +156,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="epoch_log2" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="12" name="epoch_log2" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kmeans\epoch_log.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -180,7 +180,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="epoch_log3" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="15" name="epoch_log3" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kmeans\epoch_log.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -244,7 +244,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" name="wariant0_neuron8" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="22" name="wariant0_neuron8" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\neuralgas\wariant0_neuron8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -254,7 +254,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" name="wariant0_neuron8_norm" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="23" name="wariant0_neuron8_norm" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\neuralgas\wariant0_neuron8_norm.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="skip"/>
@@ -264,7 +264,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="24" name="wariant1_centroid8" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="24" name="wariant1_centroid8" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kmeans\wariant1_centroid8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="2">
         <textField/>
@@ -272,7 +272,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="25" name="wariant1_neuron8" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="25" name="wariant1_neuron8" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kohonen\wariant1_neuron8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -282,7 +282,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="26" name="wariant1_neuron8_norm" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="26" name="wariant1_neuron8_norm" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kohonen\wariant1_neuron8_norm.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="skip"/>
@@ -292,7 +292,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="27" name="wariant1_neuron8_norm1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="27" name="wariant1_neuron8_norm1" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\neuralgas\wariant1_neuron8_norm.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="skip"/>
@@ -302,7 +302,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" name="wariant1_neuron81" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="28" name="wariant1_neuron81" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\neuralgas\wariant1_neuron8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -312,7 +312,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="29" name="wariant2_centroid8" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="29" name="wariant2_centroid8" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kmeans\wariant2_centroid8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="2">
         <textField/>
@@ -320,7 +320,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="30" name="wariant2_neuron8" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="30" name="wariant2_neuron8" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kohonen\wariant2_neuron8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -330,7 +330,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="31" name="wariant2_neuron8_norm" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="31" name="wariant2_neuron8_norm" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\kohonen\wariant2_neuron8_norm.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="skip"/>
@@ -340,7 +340,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" name="wariant2_neuron8_norm1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="32" name="wariant2_neuron8_norm1" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\neuralgas\wariant2_neuron8_norm.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField type="skip"/>
@@ -350,7 +350,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="33" name="wariant2_neuron81" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="33" name="wariant2_neuron81" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" firstRow="2" sourceFile="C:\Users\Lukasz\SkyDrive\Eclipse Workspace\15 - Spring 2014\Inteligentna Analiza Danych 03\resources\neuralgas\wariant2_neuron8.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
@@ -3467,11 +3467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="17393920"/>
-        <c:axId val="17394496"/>
+        <c:axId val="527958016"/>
+        <c:axId val="527958592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17393920"/>
+        <c:axId val="527958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3504,12 +3504,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17394496"/>
+        <c:crossAx val="527958592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17394496"/>
+        <c:axId val="527958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,7 +3545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17393920"/>
+        <c:crossAx val="527958016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6760,11 +6760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="542057600"/>
-        <c:axId val="542058176"/>
+        <c:axId val="527960896"/>
+        <c:axId val="527961472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="542057600"/>
+        <c:axId val="527960896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6797,12 +6797,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542058176"/>
+        <c:crossAx val="527961472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542058176"/>
+        <c:axId val="527961472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,7 +6838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542057600"/>
+        <c:crossAx val="527960896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10053,11 +10053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="542062208"/>
-        <c:axId val="542062784"/>
+        <c:axId val="527963776"/>
+        <c:axId val="527964352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="542062208"/>
+        <c:axId val="527963776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10090,12 +10090,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542062784"/>
+        <c:crossAx val="527964352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542062784"/>
+        <c:axId val="527964352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10131,7 +10131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542062208"/>
+        <c:crossAx val="527963776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10188,7 +10188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12644,11 +12643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="17396800"/>
-        <c:axId val="17397376"/>
+        <c:axId val="40952960"/>
+        <c:axId val="527965504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17396800"/>
+        <c:axId val="40952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12678,19 +12677,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17397376"/>
+        <c:crossAx val="527965504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17397376"/>
+        <c:axId val="527965504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12715,21 +12713,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17396800"/>
+        <c:crossAx val="40952960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17622,11 +17618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="17408000"/>
-        <c:axId val="17408576"/>
+        <c:axId val="40955264"/>
+        <c:axId val="40955840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17408000"/>
+        <c:axId val="40955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -17658,12 +17654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17408576"/>
+        <c:crossAx val="40955840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17408576"/>
+        <c:axId val="40955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17694,7 +17690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17408000"/>
+        <c:crossAx val="40955264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22211,11 +22207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="17410880"/>
-        <c:axId val="17411456"/>
+        <c:axId val="40958144"/>
+        <c:axId val="40958720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17410880"/>
+        <c:axId val="40958144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22246,12 +22242,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17411456"/>
+        <c:crossAx val="40958720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17411456"/>
+        <c:axId val="40958720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22282,7 +22278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17410880"/>
+        <c:crossAx val="40958144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22508,99 +22504,99 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant0_neuron8_norm" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_centroid8" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_5" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8_1" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_norm_1" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_1" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_centroid8" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_norm_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_12" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_8" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_16" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_5" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_norm_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_norm_1" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_neuron8_1" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant2_centroid8" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_21" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_24" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_28" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant0_neuron8" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_18" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_6" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_29" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_19" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_4" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_25" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_30" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_7" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_5" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_18" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_4" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_17" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_22" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_16" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22608,71 +22604,71 @@
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_21" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_9" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_23" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_17" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_30" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_10" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_24" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_27" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant0_neuron8_norm" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_10" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_8" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_6" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_19" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_9" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_27" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_22" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_12" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log_7" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="epoch_log" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant0_neuron8" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8_norm_1" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8_norm" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8_1" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8_norm" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_centroid8" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wariant1_neuron8_norm_1" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22964,9 +22960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A35:N136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26633,9 +26627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A35:N136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30509,9 +30501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A35:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
